--- a/biology/Botanique/Pois_sucré/Pois_sucré.xlsx
+++ b/biology/Botanique/Pois_sucré/Pois_sucré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pois_sucr%C3%A9</t>
+          <t>Pois_sucré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>« Pois sucré » est un nom vernaculaire qui peut désigner différentes espèces de plantes :
-un pois mangetout croquant et sucré, qui se consomme dès que les gousses sont totalement formées : Pisum sativum (famille des Fabaceae)[1] ;
-différentes espèces d'arbres du genre Inga (famille des Fabaceae), qui produisent des gousses dont la pulpe sucrée, comestible, est consommée localement :  Inga edulis, Inga feuilleei, Inga ingoïdes, Inga leiocalycina, Inga macrophylla, Inga pezizifera, Inga thibaudiana ; cette acception est usitée notamment en Guyane française[2] ;
-le souchet, Cyperus esculentus (famille des Cyperaceae) ; cette acception est usitée en Afrique de l'Ouest (Niger, Burkina Faso, Mali, Côte d'Ivoire)[3].</t>
+un pois mangetout croquant et sucré, qui se consomme dès que les gousses sont totalement formées : Pisum sativum (famille des Fabaceae) ;
+différentes espèces d'arbres du genre Inga (famille des Fabaceae), qui produisent des gousses dont la pulpe sucrée, comestible, est consommée localement :  Inga edulis, Inga feuilleei, Inga ingoïdes, Inga leiocalycina, Inga macrophylla, Inga pezizifera, Inga thibaudiana ; cette acception est usitée notamment en Guyane française ;
+le souchet, Cyperus esculentus (famille des Cyperaceae) ; cette acception est usitée en Afrique de l'Ouest (Niger, Burkina Faso, Mali, Côte d'Ivoire).</t>
         </is>
       </c>
     </row>
